--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>943453.8604837905</v>
+        <v>936443.1313677958</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791246</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -674,10 +674,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>77.47346172624751</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>107.7465349348603</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>54.92091011697627</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -792,7 +792,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>22.78476950182712</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>85.32124093375123</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>125.5308591184885</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>141.3975089996392</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>295.5059154072965</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1023,7 +1023,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1035,13 +1035,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.9247026980601</v>
+        <v>123.5074686873909</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>2.020779149813019</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>2.985676702963014</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>234.5524603649677</v>
+        <v>261.0048237694887</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>70.73503098099468</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>66.73038770362433</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T11" t="n">
-        <v>82.82406701840772</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>55.91274530763899</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>12.56346662873418</v>
+        <v>123.7187355140481</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>250.5722406733032</v>
       </c>
       <c r="W14" t="n">
-        <v>266.1196451494749</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.07096588640378</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>42.70289545876345</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277449</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059288</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497647</v>
+        <v>37.77220663497646</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3004,16 +3004,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838885</v>
+        <v>24.17382596574978</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828898</v>
+        <v>52.06849973564991</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043173</v>
+        <v>70.57601873167823</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459971</v>
+        <v>55.72314698196064</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643943</v>
+        <v>41.29686219380037</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931855</v>
+        <v>41.22330424667948</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908581</v>
+        <v>42.97275566644674</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147795</v>
+        <v>53.79159358883888</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804999</v>
+        <v>41.14384575541092</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922192</v>
+        <v>18.98356133658285</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367784</v>
+        <v>9.88205970103877</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920516</v>
+        <v>88.00800320656609</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
         <v>90.90562710059311</v>
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277472</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>872.0959742198254</v>
+        <v>1315.38133282233</v>
       </c>
       <c r="C2" t="n">
-        <v>872.0959742198254</v>
+        <v>1315.38133282233</v>
       </c>
       <c r="D2" t="n">
-        <v>872.0959742198254</v>
+        <v>929.940204038998</v>
       </c>
       <c r="E2" t="n">
-        <v>469.51244933637</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475494</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475494</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059666</v>
+        <v>1048.426217084555</v>
       </c>
       <c r="N2" t="n">
-        <v>1578.706865059666</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="O2" t="n">
-        <v>2018.746465951995</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>2018.746465951995</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023269</v>
+        <v>1813.66882166186</v>
       </c>
       <c r="U2" t="n">
-        <v>2058.534034077564</v>
+        <v>1813.66882166186</v>
       </c>
       <c r="V2" t="n">
-        <v>2058.534034077564</v>
+        <v>1813.66882166186</v>
       </c>
       <c r="W2" t="n">
-        <v>2058.534034077564</v>
+        <v>1704.833937889273</v>
       </c>
       <c r="X2" t="n">
-        <v>1669.081429010621</v>
+        <v>1315.38133282233</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.590719931222</v>
+        <v>1315.38133282233</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>766.2559293026743</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>615.6016988627665</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475494</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475494</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>347.3800255716908</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>885.6388105817831</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N3" t="n">
-        <v>1423.897595591875</v>
+        <v>1985.128818155981</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182856</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1516.79080418483</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1286.673558318117</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1097.366480668128</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>918.0522637436356</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.87392956865298</v>
+        <v>297.891436340603</v>
       </c>
       <c r="C4" t="n">
-        <v>73.87392956865298</v>
+        <v>127.6863184065922</v>
       </c>
       <c r="D4" t="n">
-        <v>73.87392956865298</v>
+        <v>127.6863184065922</v>
       </c>
       <c r="E4" t="n">
-        <v>73.87392956865298</v>
+        <v>127.6863184065922</v>
       </c>
       <c r="F4" t="n">
-        <v>73.87392956865298</v>
+        <v>127.6863184065922</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865298</v>
+        <v>127.6863184065922</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>583.330228098702</v>
       </c>
       <c r="U4" t="n">
-        <v>423.7848383464424</v>
+        <v>297.891436340603</v>
       </c>
       <c r="V4" t="n">
-        <v>296.9859907520096</v>
+        <v>297.891436340603</v>
       </c>
       <c r="W4" t="n">
-        <v>296.9859907520096</v>
+        <v>297.891436340603</v>
       </c>
       <c r="X4" t="n">
-        <v>296.9859907520096</v>
+        <v>297.891436340603</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.87392956865298</v>
+        <v>297.891436340603</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1529.577635105402</v>
+        <v>1170.051264382091</v>
       </c>
       <c r="C5" t="n">
-        <v>1529.577635105402</v>
+        <v>1170.051264382091</v>
       </c>
       <c r="D5" t="n">
-        <v>1144.13650632207</v>
+        <v>1170.051264382091</v>
       </c>
       <c r="E5" t="n">
-        <v>741.5529814386146</v>
+        <v>1170.051264382091</v>
       </c>
       <c r="F5" t="n">
-        <v>324.6585429685923</v>
+        <v>753.1568259120692</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>339.9940704000723</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7838773210173</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>528.7662333484791</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>1022.086525067008</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1022.086525067008</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="N5" t="n">
-        <v>1549.89780870447</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596798</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737747</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737747</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="U5" t="n">
-        <v>1919.030240172346</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="V5" t="n">
-        <v>1919.030240172346</v>
+        <v>1566.54197346149</v>
       </c>
       <c r="W5" t="n">
-        <v>1919.030240172346</v>
+        <v>1566.54197346149</v>
       </c>
       <c r="X5" t="n">
-        <v>1529.577635105402</v>
+        <v>1566.54197346149</v>
       </c>
       <c r="Y5" t="n">
-        <v>1529.577635105402</v>
+        <v>1170.051264382091</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442683</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475494</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L6" t="n">
-        <v>43.49565939475494</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="M6" t="n">
-        <v>581.7544444048473</v>
+        <v>874.8450714282528</v>
       </c>
       <c r="N6" t="n">
-        <v>1120.01322941494</v>
+        <v>1388.447750037941</v>
       </c>
       <c r="O6" t="n">
-        <v>1636.533512005921</v>
+        <v>1902.050428647629</v>
       </c>
       <c r="P6" t="n">
-        <v>2042.154880722318</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2150.865926635811</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>1973.88211483472</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1763.818971513361</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1541.278969884429</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1311.161724017715</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="X6" t="n">
-        <v>1121.854646367727</v>
+        <v>1117.420583213483</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>399.712160600149</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="C7" t="n">
-        <v>229.5070426661382</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="D7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="E7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633842</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>819.0005015084672</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T7" t="n">
-        <v>819.0005015084672</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U7" t="n">
-        <v>819.0005015084672</v>
+        <v>533.6104881723688</v>
       </c>
       <c r="V7" t="n">
-        <v>819.0005015084672</v>
+        <v>267.6311429931931</v>
       </c>
       <c r="W7" t="n">
-        <v>819.0005015084672</v>
+        <v>267.6311429931931</v>
       </c>
       <c r="X7" t="n">
-        <v>584.9201792914503</v>
+        <v>264.6153079396951</v>
       </c>
       <c r="Y7" t="n">
-        <v>584.9201792914503</v>
+        <v>41.50324675633842</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1798.640204306834</v>
+        <v>1965.153759365783</v>
       </c>
       <c r="C8" t="n">
-        <v>1405.464702809765</v>
+        <v>1571.978257868714</v>
       </c>
       <c r="D8" t="n">
-        <v>1020.023574026432</v>
+        <v>1186.537129085382</v>
       </c>
       <c r="E8" t="n">
-        <v>617.4400491429767</v>
+        <v>1186.537129085382</v>
       </c>
       <c r="F8" t="n">
-        <v>380.5183720066457</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4814,10 +4814,10 @@
         <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1590.266290800943</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2030.305891693271</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>763.5519739517948</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="C10" t="n">
-        <v>593.346856017784</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="D10" t="n">
-        <v>437.7137429202988</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="E10" t="n">
-        <v>437.7137429202988</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F10" t="n">
-        <v>437.7137429202988</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>360.1977170293682</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.935942880364</v>
+        <v>1702.435468430417</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.556716529488</v>
+        <v>1381.056242079542</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550881</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312598</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654568</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3022.295711449809</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>3022.295711449809</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2751.985177299521</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2751.985177299521</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.328847378772</v>
+        <v>2087.611459508387</v>
       </c>
       <c r="Y11" t="n">
-        <v>2109.634413445567</v>
+        <v>2031.13393899562</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>497.339280970973</v>
+        <v>426.1976847794382</v>
       </c>
       <c r="C13" t="n">
-        <v>398.9304381831561</v>
+        <v>327.7888419916213</v>
       </c>
       <c r="D13" t="n">
-        <v>315.0936002318647</v>
+        <v>327.7888419916213</v>
       </c>
       <c r="E13" t="n">
-        <v>231.3310632372611</v>
+        <v>327.7888419916213</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>242.2591823507882</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>145.8014035964276</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1431.937557261223</v>
+        <v>1371.764222103349</v>
       </c>
       <c r="T13" t="n">
-        <v>1268.014780575651</v>
+        <v>1207.841445417777</v>
       </c>
       <c r="U13" t="n">
-        <v>1054.372263963746</v>
+        <v>994.1989288058716</v>
       </c>
       <c r="V13" t="n">
-        <v>860.1891939307642</v>
+        <v>800.0158587728897</v>
       </c>
       <c r="W13" t="n">
-        <v>648.6550670081358</v>
+        <v>588.4817318502612</v>
       </c>
       <c r="X13" t="n">
-        <v>648.6550670081358</v>
+        <v>426.1976847794382</v>
       </c>
       <c r="Y13" t="n">
-        <v>497.339280970973</v>
+        <v>426.1976847794382</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1714.395101119023</v>
+        <v>1621.583713082509</v>
       </c>
       <c r="C14" t="n">
-        <v>1393.015874768147</v>
+        <v>1300.204486731634</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.371021131009</v>
+        <v>986.5596330944954</v>
       </c>
       <c r="E14" t="n">
-        <v>748.583771393747</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699187</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411573</v>
+        <v>314.4059029914309</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>2954.252057911387</v>
+        <v>2827.282650873814</v>
       </c>
       <c r="V14" t="n">
-        <v>2954.252057911387</v>
+        <v>2574.179377466436</v>
       </c>
       <c r="W14" t="n">
-        <v>2685.44433553818</v>
+        <v>2274.976617580917</v>
       </c>
       <c r="X14" t="n">
-        <v>2367.788005617431</v>
+        <v>2274.976617580917</v>
       </c>
       <c r="Y14" t="n">
-        <v>2043.093571684226</v>
+        <v>1950.282183647712</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2150.837595685923</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>376.5463125075719</v>
+        <v>342.5154088871261</v>
       </c>
       <c r="C16" t="n">
-        <v>376.5463125075719</v>
+        <v>244.1065660993092</v>
       </c>
       <c r="D16" t="n">
-        <v>292.7094745562806</v>
+        <v>244.1065660993092</v>
       </c>
       <c r="E16" t="n">
-        <v>208.9469375616769</v>
+        <v>244.1065660993092</v>
       </c>
       <c r="F16" t="n">
-        <v>123.4172779208438</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814508</v>
+        <v>1401.493689756144</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.809865128936</v>
+        <v>1237.570913070572</v>
       </c>
       <c r="U16" t="n">
-        <v>1119.16734851703</v>
+        <v>1023.928396458667</v>
       </c>
       <c r="V16" t="n">
-        <v>924.9842784840484</v>
+        <v>829.7453264256849</v>
       </c>
       <c r="W16" t="n">
-        <v>713.4501515614199</v>
+        <v>618.2111995030564</v>
       </c>
       <c r="X16" t="n">
-        <v>551.1661044905969</v>
+        <v>455.9271524322334</v>
       </c>
       <c r="Y16" t="n">
-        <v>399.8503184534342</v>
+        <v>455.9271524322334</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1345.668748541356</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>1862.189031132337</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291065</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222408</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184691</v>
+        <v>442.7178209184705</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567331</v>
+        <v>629.0093992567345</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,25 +5777,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222417</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>442.71782091847</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6069,10 +6069,10 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>346.0196676966397</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>346.0196676966397</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M24" t="n">
         <v>973.7913173233209</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,46 +6151,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>303.7986541368141</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>755.8323718938492</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1342.204025341951</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1981.256287116105</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2602.118932483141</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>3042.158533375469</v>
       </c>
       <c r="P26" t="n">
-        <v>3483.397387236564</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
         <v>3668.242947377513</v>
@@ -6251,10 +6251,10 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6318,10 +6318,10 @@
         <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>2273.334693965057</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
-        <v>2273.334693965057</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388013</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>700.0178648958364</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614364</v>
+        <v>1286.389518343939</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1925.441780118093</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6540,22 +6540,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="M30" t="n">
-        <v>1504.441740534771</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="N30" t="n">
-        <v>2157.335302368295</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985357</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517132</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878072</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879686</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746022</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232845</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286454</v>
+        <v>861.9084564286449</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988169</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026486</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057096</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835497</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041217</v>
+        <v>651.4842651334777</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1144.804556852006</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1690.805456896587</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.031666146211</v>
+        <v>2218.616740534049</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038539</v>
+        <v>2770.308462001361</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170061</v>
+        <v>3118.495954132882</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038079</v>
+        <v>3303.341514273831</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>575.5983691435694</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965125</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918663</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237457</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123128</v>
+        <v>226.0316571652536</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546504</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834605</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431908</v>
+        <v>86.7304500837419</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803362</v>
+        <v>231.2685546898324</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812062</v>
+        <v>395.3961945636322</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465404</v>
+        <v>687.4874315041429</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>982.3291861103351</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872943</v>
+        <v>1145.033953152043</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250179</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395512</v>
+        <v>835.7257283273674</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000934</v>
+        <v>666.3144371400703</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124411</v>
+        <v>546.1532258045786</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584491</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,10 +6959,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7087,28 +7087,28 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960409</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7154,16 +7154,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7348,10 +7348,10 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2150.837595685923</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128482</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>776.8456480823215</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O43" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P46" t="n">
-        <v>965.7235964838011</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321639</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>647.8084594790928</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>302.1113285050106</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>397.0142520861463</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837486</v>
+        <v>611.1777065035421</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886034</v>
+        <v>604.1626973083969</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>183.6305080413532</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>245.2436944335201</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,16 +8222,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>214.0018366896111</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8295,25 +8295,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837486</v>
+        <v>611.1777065035421</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886034</v>
+        <v>604.1626973083969</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431192</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>261.9438791317313</v>
       </c>
       <c r="Q6" t="n">
-        <v>224.9559198381652</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8462,13 +8462,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>302.3186727388648</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581658</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>319.0197961262124</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,13 +9240,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9255,13 +9255,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,13 +9717,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>262.1075997502998</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>573.7149542682833</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9966,13 +9966,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.5494662449327</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,25 +10188,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092955</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>744.8605591506555</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>163.9964000092959</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>212.248871977908</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,10 +10662,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10674,13 +10674,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>658.1108392979579</v>
+        <v>630.6030013529515</v>
       </c>
       <c r="O36" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>133.4455245943154</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>319.0197961262124</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362792</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>67.36321700303783</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>265.5347442862339</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S13" t="n">
-        <v>117.14614395581</v>
+        <v>5.990875070496058</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>17.03518813548163</v>
       </c>
       <c r="W14" t="n">
-        <v>30.09108713718854</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.20666022325256</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>87.00671512578067</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.094235813070554e-12</v>
       </c>
       <c r="T20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.668621376273222e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796795.1171220024</v>
+        <v>796795.1171220025</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796795.1171220024</v>
+        <v>796795.1171220025</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901660.8904667835</v>
+        <v>901660.8904667834</v>
       </c>
     </row>
     <row r="9">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>360664.3561867135</v>
+      </c>
+      <c r="C2" t="n">
+        <v>360664.3561867134</v>
+      </c>
+      <c r="D2" t="n">
+        <v>360664.3561867134</v>
+      </c>
+      <c r="E2" t="n">
+        <v>318718.0468488016</v>
+      </c>
+      <c r="F2" t="n">
+        <v>318718.0468488015</v>
+      </c>
+      <c r="G2" t="n">
+        <v>360664.3561867137</v>
+      </c>
+      <c r="H2" t="n">
         <v>360664.3561867136</v>
       </c>
-      <c r="C2" t="n">
-        <v>360664.3561867136</v>
-      </c>
-      <c r="D2" t="n">
-        <v>360664.3561867135</v>
-      </c>
-      <c r="E2" t="n">
-        <v>318718.0468488015</v>
-      </c>
-      <c r="F2" t="n">
-        <v>318718.0468488016</v>
-      </c>
-      <c r="G2" t="n">
-        <v>360664.3561867138</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>360664.3561867137</v>
-      </c>
-      <c r="I2" t="n">
-        <v>360664.3561867136</v>
       </c>
       <c r="J2" t="n">
         <v>360664.3561867136</v>
@@ -26341,19 +26341,19 @@
         <v>360664.3561867137</v>
       </c>
       <c r="L2" t="n">
-        <v>360664.3561867143</v>
+        <v>360664.3561867136</v>
       </c>
       <c r="M2" t="n">
-        <v>360664.3561867137</v>
+        <v>360664.3561867136</v>
       </c>
       <c r="N2" t="n">
-        <v>360664.3561867137</v>
+        <v>360664.3561867138</v>
       </c>
       <c r="O2" t="n">
         <v>360664.3561867137</v>
       </c>
       <c r="P2" t="n">
-        <v>360664.3561867137</v>
+        <v>360664.3561867138</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062204</v>
+        <v>22558.42953401358</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668187</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728558</v>
+        <v>62456.24177539676</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962307</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277117</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243105</v>
+        <v>173918.2775005337</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243106</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373748</v>
+        <v>74084.49552373751</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373747</v>
+        <v>74084.49552373751</v>
       </c>
       <c r="G4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="H4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="I4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="J4" t="n">
         <v>122593.9044797028</v>
@@ -26445,7 +26445,7 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
@@ -26457,7 +26457,7 @@
         <v>121843.4120153196</v>
       </c>
       <c r="P4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55430.99646946644</v>
+        <v>-52282.64588269238</v>
       </c>
       <c r="C6" t="n">
-        <v>126773.9518223893</v>
+        <v>121576.0111513626</v>
       </c>
       <c r="D6" t="n">
-        <v>121910.669528514</v>
+        <v>114174.3803051224</v>
       </c>
       <c r="E6" t="n">
-        <v>79324.97015117895</v>
+        <v>79115.23860448944</v>
       </c>
       <c r="F6" t="n">
-        <v>191447.5316252236</v>
+        <v>191237.8000785339</v>
       </c>
       <c r="G6" t="n">
-        <v>133225.8493191925</v>
+        <v>133225.8493191926</v>
       </c>
       <c r="H6" t="n">
+        <v>180651.1748558743</v>
+      </c>
+      <c r="I6" t="n">
         <v>180651.1748558744</v>
       </c>
-      <c r="I6" t="n">
-        <v>180651.1748558743</v>
-      </c>
       <c r="J6" t="n">
-        <v>-32390.74274141112</v>
+        <v>-25874.45758683807</v>
       </c>
       <c r="K6" t="n">
         <v>174411.4064530914</v>
       </c>
       <c r="L6" t="n">
-        <v>119228.8175184709</v>
+        <v>115179.980307998</v>
       </c>
       <c r="M6" t="n">
-        <v>138450.3453962513</v>
+        <v>137398.6503850631</v>
       </c>
       <c r="N6" t="n">
-        <v>180651.1748558744</v>
+        <v>180651.1748558745</v>
       </c>
       <c r="O6" t="n">
-        <v>152883.4808131032</v>
+        <v>152883.4808131031</v>
       </c>
       <c r="P6" t="n">
         <v>180651.1748558744</v>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26710,10 +26710,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26814,19 +26814,19 @@
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095199</v>
+        <v>844.4391950293135</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085234</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660698</v>
+        <v>78.07030221924595</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551342</v>
+        <v>17.58004954287438</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773709</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407316</v>
+        <v>117.1268713042797</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085234</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.6215418150648</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>175.7217405434999</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>259.5425097465351</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>73.86716758775819</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>185.1777423863175</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>68.60252459436973</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>137.7886926088955</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>267.6336189572377</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>25.33630452187771</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>51.59637205718778</v>
+        <v>54.01360606785691</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>198.7671438294631</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>228.7538422918837</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>178.1730337203543</v>
+        <v>151.7206703158333</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>95.83648238055423</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>196.5891640237597</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,37 +28719,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="K19" t="n">
-        <v>5.636002634528666</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3599693155844</v>
+        <v>35.71049010668918</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28980,16 +28980,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.636002634529632</v>
+      </c>
+      <c r="L22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
-        <v>35.7104901066877</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29223,22 +29223,22 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M25" t="n">
-        <v>5.636002634528609</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>5.636002634529465</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29296,7 +29296,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599569</v>
       </c>
       <c r="K26" t="n">
         <v>93.99127447431646</v>
@@ -29308,16 +29308,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="P26" t="n">
-        <v>86.65052755599538</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>37.61298457733328</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901311</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>81.10808140893204</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>48.6599273883304</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224714</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254032</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,13 +30165,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668824</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>5.636002634529035</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155848</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
         <v>130.3599693155844</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,28 +30639,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="O43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.71049010668843</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30891,16 +30891,16 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>28.01250026485198</v>
       </c>
       <c r="P46" t="n">
-        <v>5.636002634529405</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>498.6899681413087</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>157.6126300866185</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>306.9539052292281</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>90.94294915246429</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>127.5638564911741</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,16 +34942,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>64.27678509188387</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542303</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>174.8605143124166</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.9677666822512</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>152.0172254979396</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088539</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>231.9364313068977</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35975,13 +35975,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
-        <v>88.29766032133864</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376044</v>
+        <v>201.4959849287092</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133961</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
-        <v>223.8838015594797</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36361,7 +36361,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36437,13 +36437,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>172.5106644169664</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>483.6546074113651</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36519,10 +36519,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>193.8093140873206</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,10 +36531,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681948</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>232.7614092820847</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36604,16 +36604,16 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>438.3550650625831</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36686,13 +36686,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851021</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.599714906096</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>445.6958119809041</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698315</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>73.9360531523773</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>659.4884462964889</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>443.7165218407117</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682819</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>581.8026381332415</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184964</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537675</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>73.9360531523777</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791188</v>
+        <v>82.70543230055097</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>295.0416534752634</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476688</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496192</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37394,13 +37394,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>572.7387264437913</v>
+        <v>545.2308884987849</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634529174</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>171.421497456549</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,7 +37479,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535425</v>
+        <v>249.385018246236</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>51.00106726098205</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>231.9364313068977</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37947,16 +37947,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.16725411684092</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38187,16 +38187,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>192.3607498019308</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7230387724876</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
